--- a/modelos/OBASPA4451153/OBASPA4451153_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4451153/OBASPA4451153_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45023</v>
+        <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>23.93759505667619</v>
+        <v>9.645164104746405</v>
       </c>
       <c r="C2" t="n">
-        <v>16.15103249860509</v>
+        <v>1.681625161411827</v>
       </c>
       <c r="D2" t="n">
-        <v>31.88029375549941</v>
+        <v>17.40925536154976</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45027</v>
+        <v>45023</v>
       </c>
       <c r="B3" t="n">
-        <v>22.03675823080981</v>
+        <v>28.08789260502223</v>
       </c>
       <c r="C3" t="n">
-        <v>13.93165488007883</v>
+        <v>20.66415135012923</v>
       </c>
       <c r="D3" t="n">
-        <v>30.0483535588421</v>
+        <v>35.77884192573625</v>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45020</v>
@@ -513,41 +513,61 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45048</v>
+        <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>22.86745907540534</v>
+        <v>21.21461988502623</v>
       </c>
       <c r="C4" t="n">
-        <v>15.06073440887986</v>
+        <v>13.30612448446377</v>
       </c>
       <c r="D4" t="n">
-        <v>30.954168157593</v>
+        <v>28.77446127951531</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45042</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B5" t="n">
+        <v>21.80563457038444</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.08678611298009</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.6466855706937</v>
+      </c>
+      <c r="E5" t="n">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45056</v>
       </c>
-      <c r="B5" t="n">
-        <v>19.76268581394219</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.92061274902534</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.12157552690308</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B6" t="n">
+        <v>18.8582814921299</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.03001991149029</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.7361865104845</v>
+      </c>
+      <c r="E6" t="n">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>45049</v>
       </c>
     </row>
@@ -562,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,22 +637,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>98.75579551047514</v>
+        <v>198.4687180506401</v>
       </c>
       <c r="C2" t="n">
-        <v>9.937595056676194</v>
+        <v>14.08789260502223</v>
       </c>
       <c r="D2" t="n">
-        <v>9.937595056676194</v>
+        <v>14.08789260502223</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7098282183340139</v>
+        <v>1.006278043215874</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7098282183340139</v>
+        <v>1.006278043215874</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5238916721964111</v>
+        <v>0.6694510812043444</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -640,54 +660,80 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>83.40330373939631</v>
+        <v>13.28722135053166</v>
       </c>
       <c r="C3" t="n">
-        <v>9.132540924594661</v>
+        <v>3.645164104746405</v>
       </c>
       <c r="D3" t="n">
-        <v>9.132540924594661</v>
+        <v>3.645164104746405</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2853919038935832</v>
+        <v>0.6075273507910675</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2853919038935832</v>
+        <v>0.6075273507910675</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3328946183581655</v>
+        <v>0.4659796573997637</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>103.9250865125408</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.19436542961556</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.19436542961556</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3185739196754862</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3185739196754862</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3789330062181523</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>33.22078372378083</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.763747368143474</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.600277977623998</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2083332714484489</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2083332714484489</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2332606364887598</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+      <c r="B5" t="n">
+        <v>43.52470637440146</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.597325698675294</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.463549311421934</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2413498272181058</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2413498272181058</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.27501234440907</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4451153/OBASPA4451153_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4451153/OBASPA4451153_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>9.645164104746405</v>
+        <v>9.267760054003494</v>
       </c>
       <c r="C2" t="n">
-        <v>1.681625161411827</v>
+        <v>1.606874583733926</v>
       </c>
       <c r="D2" t="n">
-        <v>17.40925536154976</v>
+        <v>16.83242215854041</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -496,13 +496,13 @@
         <v>45023</v>
       </c>
       <c r="B3" t="n">
-        <v>28.08789260502223</v>
+        <v>24.03563827339266</v>
       </c>
       <c r="C3" t="n">
-        <v>20.66415135012923</v>
+        <v>16.07328869287671</v>
       </c>
       <c r="D3" t="n">
-        <v>35.77884192573625</v>
+        <v>31.80445817194522</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>21.21461988502623</v>
+        <v>20.88932606927762</v>
       </c>
       <c r="C4" t="n">
-        <v>13.30612448446377</v>
+        <v>13.14414331700079</v>
       </c>
       <c r="D4" t="n">
-        <v>28.77446127951531</v>
+        <v>29.22761805645318</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
@@ -536,13 +536,13 @@
         <v>45048</v>
       </c>
       <c r="B5" t="n">
-        <v>21.80563457038444</v>
+        <v>21.75436093602288</v>
       </c>
       <c r="C5" t="n">
-        <v>14.08678611298009</v>
+        <v>13.99437363655057</v>
       </c>
       <c r="D5" t="n">
-        <v>29.6466855706937</v>
+        <v>29.49327279829805</v>
       </c>
       <c r="E5" t="n">
         <v>32</v>
@@ -556,13 +556,13 @@
         <v>45056</v>
       </c>
       <c r="B6" t="n">
-        <v>18.8582814921299</v>
+        <v>18.83080261733267</v>
       </c>
       <c r="C6" t="n">
-        <v>11.03001991149029</v>
+        <v>10.66646417935033</v>
       </c>
       <c r="D6" t="n">
-        <v>26.7361865104845</v>
+        <v>26.88858111834725</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
@@ -637,22 +637,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>198.4687180506401</v>
+        <v>100.7140355543835</v>
       </c>
       <c r="C2" t="n">
-        <v>14.08789260502223</v>
+        <v>10.03563827339266</v>
       </c>
       <c r="D2" t="n">
-        <v>14.08789260502223</v>
+        <v>10.03563827339266</v>
       </c>
       <c r="E2" t="n">
-        <v>1.006278043215874</v>
+        <v>0.7168313052423326</v>
       </c>
       <c r="F2" t="n">
-        <v>1.006278043215874</v>
+        <v>0.7168313052423326</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6694510812043444</v>
+        <v>0.5276965881975463</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -663,22 +663,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>13.28722135053166</v>
+        <v>10.67825577054092</v>
       </c>
       <c r="C3" t="n">
-        <v>3.645164104746405</v>
+        <v>3.267760054003494</v>
       </c>
       <c r="D3" t="n">
-        <v>3.645164104746405</v>
+        <v>3.267760054003494</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6075273507910675</v>
+        <v>0.544626675667249</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6075273507910675</v>
+        <v>0.544626675667249</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4659796573997637</v>
+        <v>0.4280601794166428</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -689,22 +689,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>103.9250865125408</v>
+        <v>104.973119829294</v>
       </c>
       <c r="C4" t="n">
-        <v>10.19436542961556</v>
+        <v>10.24563906397712</v>
       </c>
       <c r="D4" t="n">
-        <v>10.19436542961556</v>
+        <v>10.24563906397712</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3185739196754862</v>
+        <v>0.3201762207492851</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3185739196754862</v>
+        <v>0.3201762207492851</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3789330062181523</v>
+        <v>0.3812021531116789</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -715,25 +715,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>43.52470637440146</v>
+        <v>46.25181659573722</v>
       </c>
       <c r="C5" t="n">
-        <v>6.597325698675294</v>
+        <v>6.80086881183112</v>
       </c>
       <c r="D5" t="n">
-        <v>6.463549311421934</v>
+        <v>6.639935656694856</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2413498272181058</v>
+        <v>0.2475308178410127</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2413498272181058</v>
+        <v>0.2475308178410127</v>
       </c>
       <c r="G5" t="n">
-        <v>0.27501234440907</v>
+        <v>0.283262112802415</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4451153/OBASPA4451153_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4451153/OBASPA4451153_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>9.267760054003494</v>
+        <v>9.903608486958154</v>
       </c>
       <c r="C2" t="n">
-        <v>1.606874583733926</v>
+        <v>2.701649932309148</v>
       </c>
       <c r="D2" t="n">
-        <v>16.83242215854041</v>
+        <v>17.87100581151887</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -496,13 +496,13 @@
         <v>45023</v>
       </c>
       <c r="B3" t="n">
-        <v>24.03563827339266</v>
+        <v>28.33139309799986</v>
       </c>
       <c r="C3" t="n">
-        <v>16.07328869287671</v>
+        <v>20.45553991691181</v>
       </c>
       <c r="D3" t="n">
-        <v>31.80445817194522</v>
+        <v>36.31040024765171</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>20.88932606927762</v>
+        <v>21.41172683186753</v>
       </c>
       <c r="C4" t="n">
-        <v>13.14414331700079</v>
+        <v>13.42750792507564</v>
       </c>
       <c r="D4" t="n">
-        <v>29.22761805645318</v>
+        <v>29.09063996302036</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
@@ -536,13 +536,13 @@
         <v>45048</v>
       </c>
       <c r="B5" t="n">
-        <v>21.75436093602288</v>
+        <v>22.15409605108038</v>
       </c>
       <c r="C5" t="n">
-        <v>13.99437363655057</v>
+        <v>14.35180267300986</v>
       </c>
       <c r="D5" t="n">
-        <v>29.49327279829805</v>
+        <v>30.25421838027565</v>
       </c>
       <c r="E5" t="n">
         <v>32</v>
@@ -556,13 +556,13 @@
         <v>45056</v>
       </c>
       <c r="B6" t="n">
-        <v>18.83080261733267</v>
+        <v>18.99611497049704</v>
       </c>
       <c r="C6" t="n">
-        <v>10.66646417935033</v>
+        <v>10.54743714232308</v>
       </c>
       <c r="D6" t="n">
-        <v>26.88858111834725</v>
+        <v>26.9420603039484</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
@@ -637,22 +637,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>100.7140355543835</v>
+        <v>205.388828129398</v>
       </c>
       <c r="C2" t="n">
-        <v>10.03563827339266</v>
+        <v>14.33139309799986</v>
       </c>
       <c r="D2" t="n">
-        <v>10.03563827339266</v>
+        <v>14.33139309799986</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7168313052423326</v>
+        <v>1.023670935571418</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7168313052423326</v>
+        <v>1.023670935571418</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5276965881975463</v>
+        <v>0.6771047229568739</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -663,22 +663,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>10.67825577054092</v>
+        <v>15.23815921945173</v>
       </c>
       <c r="C3" t="n">
-        <v>3.267760054003494</v>
+        <v>3.903608486958154</v>
       </c>
       <c r="D3" t="n">
-        <v>3.267760054003494</v>
+        <v>3.903608486958154</v>
       </c>
       <c r="E3" t="n">
-        <v>0.544626675667249</v>
+        <v>0.6506014144930257</v>
       </c>
       <c r="F3" t="n">
-        <v>0.544626675667249</v>
+        <v>0.6506014144930257</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4280601794166428</v>
+        <v>0.4909085243338744</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -689,22 +689,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>104.973119829294</v>
+        <v>96.94182457135096</v>
       </c>
       <c r="C4" t="n">
-        <v>10.24563906397712</v>
+        <v>9.84590394891962</v>
       </c>
       <c r="D4" t="n">
-        <v>10.24563906397712</v>
+        <v>9.84590394891962</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3201762207492851</v>
+        <v>0.3076844984037381</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3201762207492851</v>
+        <v>0.3076844984037381</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3812021531116789</v>
+        <v>0.3636254564985281</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -715,22 +715,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>46.25181659573722</v>
+        <v>41.31037753134153</v>
       </c>
       <c r="C5" t="n">
-        <v>6.80086881183112</v>
+        <v>6.427314955044722</v>
       </c>
       <c r="D5" t="n">
-        <v>6.639935656694856</v>
+        <v>6.296079098817716</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2475308178410127</v>
+        <v>0.2350799007835956</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2475308178410127</v>
+        <v>0.2350799007835956</v>
       </c>
       <c r="G5" t="n">
-        <v>0.283262112802415</v>
+        <v>0.2669058860592251</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
